--- a/parsers_two_table/author_filtered_data.xlsx
+++ b/parsers_two_table/author_filtered_data.xlsx
@@ -49,158 +49,158 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002a68c3"/>
-        <bgColor rgb="0050381a"/>
+        <fgColor rgb="009dc8d3"/>
+        <bgColor rgb="00734f78"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e3b32f"/>
-        <bgColor rgb="00f20734"/>
+        <fgColor rgb="00df6637"/>
+        <bgColor rgb="00181ce1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0098c4bc"/>
-        <bgColor rgb="00045c55"/>
+        <fgColor rgb="00f64cee"/>
+        <bgColor rgb="00c44564"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00fb5be6"/>
-        <bgColor rgb="00173602"/>
+        <fgColor rgb="00e1ff16"/>
+        <bgColor rgb="00f14d6d"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e5cfbd"/>
-        <bgColor rgb="00893295"/>
+        <fgColor rgb="00f3f286"/>
+        <bgColor rgb="00b791d2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003858be"/>
-        <bgColor rgb="00e3e80a"/>
+        <fgColor rgb="00c84824"/>
+        <bgColor rgb="004569a8"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0046e5d5"/>
-        <bgColor rgb="00d12af3"/>
+        <fgColor rgb="00ef50f8"/>
+        <bgColor rgb="00fd2cb3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00e50d28"/>
-        <bgColor rgb="00dfb691"/>
+        <fgColor rgb="00862f51"/>
+        <bgColor rgb="00a22ac9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00d16fdc"/>
-        <bgColor rgb="00ac566e"/>
+        <fgColor rgb="0096950a"/>
+        <bgColor rgb="005242b3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003c862c"/>
-        <bgColor rgb="00847937"/>
+        <fgColor rgb="003bccf0"/>
+        <bgColor rgb="001bb308"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00512639"/>
-        <bgColor rgb="00dfadd9"/>
+        <fgColor rgb="009d0574"/>
+        <bgColor rgb="0091c44c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="004acfca"/>
-        <bgColor rgb="003ea20f"/>
+        <fgColor rgb="0091f0be"/>
+        <bgColor rgb="0088b841"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0062b790"/>
-        <bgColor rgb="0015f213"/>
+        <fgColor rgb="003597fb"/>
+        <bgColor rgb="00ad1a1c"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ebe897"/>
-        <bgColor rgb="00149e84"/>
+        <fgColor rgb="000d4ee0"/>
+        <bgColor rgb="0060a482"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="002d64e8"/>
-        <bgColor rgb="00a45828"/>
+        <fgColor rgb="00c989c7"/>
+        <bgColor rgb="004988e9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00867ac4"/>
-        <bgColor rgb="00d59b4a"/>
+        <fgColor rgb="002e6b90"/>
+        <bgColor rgb="0056bd30"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00324f31"/>
-        <bgColor rgb="00b68f2f"/>
+        <fgColor rgb="0056cc96"/>
+        <bgColor rgb="00f2f7af"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0016e2aa"/>
-        <bgColor rgb="00e94cad"/>
+        <fgColor rgb="0041c50e"/>
+        <bgColor rgb="00084089"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0052a55f"/>
-        <bgColor rgb="00cfa144"/>
+        <fgColor rgb="00ff689a"/>
+        <bgColor rgb="00dc20a1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0064877f"/>
-        <bgColor rgb="00584813"/>
+        <fgColor rgb="007a6f98"/>
+        <bgColor rgb="00ce1cef"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0097487a"/>
-        <bgColor rgb="002ad777"/>
+        <fgColor rgb="00935ef9"/>
+        <bgColor rgb="0015eedb"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00a94290"/>
-        <bgColor rgb="00b98d47"/>
+        <fgColor rgb="002f653d"/>
+        <bgColor rgb="0087320e"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00caddb9"/>
-        <bgColor rgb="007f2ce8"/>
+        <fgColor rgb="00205b5d"/>
+        <bgColor rgb="00fe918e"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="005fb505"/>
-        <bgColor rgb="00ac0ee6"/>
+        <fgColor rgb="00348332"/>
+        <bgColor rgb="008d61cc"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="003f64bf"/>
-        <bgColor rgb="00c86f06"/>
+        <fgColor rgb="00ad339d"/>
+        <bgColor rgb="00b22318"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="008e6dbe"/>
-        <bgColor rgb="00872c08"/>
+        <fgColor rgb="00812641"/>
+        <bgColor rgb="0054f370"/>
       </patternFill>
     </fill>
   </fills>
@@ -659,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H188"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -700,10 +700,15 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>possible_id_from_db</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>enter_id</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>formatted_author_name</t>
         </is>
@@ -731,14 +736,17 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1109375186</v>
+        <v>5453301206</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="G2" t="n">
+        <v>4917048934</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>Andreassen K.</t>
         </is>
@@ -766,14 +774,17 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>9065687988</v>
+        <v>9084239731</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="G3" t="n">
+        <v>8070366955</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>Bezrodnykh E.A.</t>
         </is>
@@ -801,14 +812,17 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2569189523</v>
+        <v>2569614476</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="G4" t="n">
+        <v>7727217305</v>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>Bogdanov V.</t>
         </is>
@@ -836,14 +850,17 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2996244809</v>
+        <v>5331982480</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="G5" t="n">
+        <v>1961921337</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>Bäck J.</t>
         </is>
@@ -871,14 +888,17 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5118405470</v>
+        <v>5700488629</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="G6" t="n">
+        <v>5962587109</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>Bünz S.</t>
         </is>
@@ -906,14 +926,17 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8919440139</v>
+        <v>3542072237</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="G7" t="n">
+        <v>8149474738</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>De Sanctis Lucentini P.G.</t>
         </is>
@@ -941,14 +964,17 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6992508361</v>
+        <v>6627790366</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="G8" t="n">
+        <v>1738636852</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>Esau I.</t>
         </is>
@@ -976,14 +1002,17 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>9199775081</v>
+        <v>7606119468</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="G9" t="n">
+        <v>3548937553</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>Grebenev V.V.</t>
         </is>
@@ -1011,14 +1040,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8073572897</v>
+        <v>6901575372</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="G10" t="n">
+        <v>4590638294</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Hubbard A.</t>
         </is>
@@ -1046,14 +1078,17 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8900635106</v>
+        <v>2520712235</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="G11" t="n">
+        <v>1491840192</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>Kats E.I.</t>
         </is>
@@ -1081,14 +1116,17 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6511610273</v>
+        <v>4683139409</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="G12" t="n">
+        <v>9257049675</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>Krutas A.D.</t>
         </is>
@@ -1116,14 +1154,17 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7663013013</v>
+        <v>7838450494</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>153485</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="G13" t="n">
+        <v>153485</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>Kuklina V.</t>
         </is>
@@ -1151,14 +1192,17 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1540199543</v>
+        <v>5928158486</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="G14" t="n">
+        <v>8479470045</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>Kulmala M.</t>
         </is>
@@ -1186,14 +1230,17 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3091136177</v>
+        <v>3406365680</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="G15" t="n">
+        <v>2511163813</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>Kusaiko A.S.</t>
         </is>
@@ -1221,14 +1268,17 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9105555323</v>
+        <v>8138647272</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>804891</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>804891</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>Kuzmin V.A.</t>
         </is>
@@ -1256,14 +1306,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8117439918</v>
+        <v>8209204367</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="n">
+        <v>9667353721</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Köster K.</t>
         </is>
@@ -1291,14 +1344,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5658942993</v>
+        <v>1383565487</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="G18" t="n">
+        <v>2309666733</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>Lebedev V.V.</t>
         </is>
@@ -1326,14 +1382,17 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9481395411</v>
+        <v>4003398401</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="n">
+        <v>7582634307</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Lu N.T.</t>
         </is>
@@ -1361,14 +1420,17 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6024050712</v>
+        <v>3377553528</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="n">
+        <v>9829370685</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Mattingsdal R.</t>
         </is>
@@ -1396,14 +1458,17 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5550997927</v>
+        <v>3747654885</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="n">
+        <v>2545185138</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Miles V.</t>
         </is>
@@ -1431,14 +1496,17 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1168518191</v>
+        <v>3961180910</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>25328</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>25328</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Muratov A.R.</t>
         </is>
@@ -1466,14 +1534,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9723366409</v>
+        <v>8412082979</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>58179</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>58179</v>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Novikov A.</t>
         </is>
@@ -1501,14 +1572,17 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6502210610</v>
+        <v>8860449041</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="G24" t="n">
+        <v>4276501375</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>Oryngozhin Ye. S. Oryngozhin</t>
         </is>
@@ -1536,14 +1610,17 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4148416734</v>
+        <v>5270845267</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="G25" t="n">
+        <v>4096460789</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>Patton H.</t>
         </is>
@@ -1571,14 +1648,17 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2745580524</v>
+        <v>8778112511</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="n">
+        <v>3319030004</v>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Petrov A.N.</t>
         </is>
@@ -1606,14 +1686,17 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6608629951</v>
+        <v>1454121011</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="G27" t="n">
+        <v>5943870460</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>Petäjä T.</t>
         </is>
@@ -1641,14 +1724,17 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9683515237</v>
+        <v>8143934098</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>35846</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="G28" t="n">
+        <v>35846</v>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>Pikina E.S.</t>
         </is>
@@ -1676,14 +1762,17 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4234839208</v>
+        <v>7082260997</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="n">
+        <v>4573381468</v>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>Rodygina N.</t>
         </is>
@@ -1711,14 +1800,17 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6058774355</v>
+        <v>6880300597</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="G30" t="n">
+        <v>5136636157</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>Semenov A.</t>
         </is>
@@ -1746,14 +1838,17 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4272931272</v>
+        <v>3355126339</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="G31" t="n">
+        <v>5338872940</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>Serov P.</t>
         </is>
@@ -1781,14 +1876,17 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2629871861</v>
+        <v>4261090612</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="n">
+        <v>2937915430</v>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Skibitskaya N.A.</t>
         </is>
@@ -1816,14 +1914,17 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4731473999</v>
+        <v>6970897360</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="G33" t="n">
+        <v>2475834706</v>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Umnikov A.</t>
         </is>
@@ -1851,14 +1952,17 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>9804489200</v>
+        <v>2916482592</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="G34" t="n">
+        <v>6855920064</v>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Vadakkepuliyambatta S.</t>
         </is>
@@ -1886,14 +1990,17 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2329501184</v>
+        <v>3092420870</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="G35" t="n">
+        <v>9005090848</v>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Yanchevskaya A.</t>
         </is>
@@ -1921,14 +2028,17 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>9769782330</v>
+        <v>5475007904</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="G36" t="n">
+        <v>3322610825</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Zaripova Y.</t>
         </is>
@@ -1956,14 +2066,17 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>8293220886</v>
+        <v>8688424957</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="G37" t="n">
+        <v>8365563513</v>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Агзамов Н.А.</t>
         </is>
@@ -1991,14 +2104,17 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2755724072</v>
+        <v>2605948895</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="G38" t="n">
+        <v>8701282811</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>Алиева Л.А.</t>
         </is>
@@ -2026,14 +2142,17 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1623843001</v>
+        <v>4791911194</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="G39" t="n">
+        <v>9421444140</v>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>Антипов М.П.</t>
         </is>
@@ -2061,14 +2180,17 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2055425632</v>
+        <v>8291609216</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="n">
+        <v>6703381302</v>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Антонов С.В.</t>
         </is>
@@ -2096,14 +2218,17 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>4919735393</v>
+        <v>9289198420</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="n">
+        <v>9925725133</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Араи Хирофуми</t>
         </is>
@@ -2131,14 +2256,17 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>7005024519</v>
+        <v>7684717551</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="n">
+        <v>8546851597</v>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>Ахметжанова З.М.</t>
         </is>
@@ -2166,14 +2294,17 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8583103145</v>
+        <v>9457067829</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="n">
+        <v>2077182945</v>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>Бабич Е.А.</t>
         </is>
@@ -2201,14 +2332,17 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5948066465</v>
+        <v>3882594739</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="G44" t="n">
+        <v>2112789006</v>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>Беляев С.Г.</t>
         </is>
@@ -2236,15 +2370,18 @@
         </is>
       </c>
       <c r="E45" s="29" t="n">
-        <v>7625874183</v>
+        <v>1694492413</v>
       </c>
       <c r="F45" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G45" s="29" t="n"/>
-      <c r="H45" s="29" t="inlineStr">
+      <c r="G45" s="29" t="n">
+        <v>6349434587</v>
+      </c>
+      <c r="H45" s="29" t="n"/>
+      <c r="I45" s="29" t="inlineStr">
         <is>
           <t>Бобов Д.Г.</t>
         </is>
@@ -2272,15 +2409,18 @@
         </is>
       </c>
       <c r="E46" s="29" t="n">
-        <v>9819303782</v>
+        <v>5953987683</v>
       </c>
       <c r="F46" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G46" s="29" t="n"/>
-      <c r="H46" s="29" t="inlineStr">
+      <c r="G46" s="29" t="n">
+        <v>3289882921</v>
+      </c>
+      <c r="H46" s="29" t="n"/>
+      <c r="I46" s="29" t="inlineStr">
         <is>
           <t>Бобов Д.Г.</t>
         </is>
@@ -2308,15 +2448,18 @@
         </is>
       </c>
       <c r="E47" s="29" t="n">
-        <v>6452598474</v>
+        <v>4450599122</v>
       </c>
       <c r="F47" s="29" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G47" s="29" t="n"/>
-      <c r="H47" s="29" t="inlineStr">
+      <c r="G47" s="29" t="n">
+        <v>6844548454</v>
+      </c>
+      <c r="H47" s="29" t="n"/>
+      <c r="I47" s="29" t="inlineStr">
         <is>
           <t>Бобов Д.Г.</t>
         </is>
@@ -2344,14 +2487,17 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>7326515217</v>
+        <v>9590445409</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>548848</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>548848</v>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>Богаткина Ю.Г.</t>
         </is>
@@ -2379,14 +2525,17 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8594997938</v>
+        <v>9147721151</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="G49" t="n">
+        <v>2686115829</v>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Богданов Б.П.</t>
         </is>
@@ -2414,14 +2563,17 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8988960370</v>
+        <v>1125880725</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>2373789776</v>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Богомолов П.В.</t>
         </is>
@@ -2449,14 +2601,17 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4406660082</v>
+        <v>5331320577</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="n">
+        <v>6629267414</v>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Бухарин М.А.</t>
         </is>
@@ -2484,14 +2639,17 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>9941450443</v>
+        <v>6078136462</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>9187758978</v>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>Василенко П.А.</t>
         </is>
@@ -2519,14 +2677,17 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>7078834628</v>
+        <v>6722335397</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="G53" t="n">
+        <v>8422991827</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Ведерников Н.Е.</t>
         </is>
@@ -2554,14 +2715,17 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7887834924</v>
+        <v>8203025352</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="n">
+        <v>2203723219</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>Велдон Д.</t>
         </is>
@@ -2589,14 +2753,17 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>5731311890</v>
+        <v>8395076591</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="G55" t="n">
+        <v>4708302668</v>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>Волошин М.Г.</t>
         </is>
@@ -2624,14 +2791,17 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>9046133349</v>
+        <v>6610122223</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="G56" t="n">
+        <v>5335196056</v>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>Волошина Е.В.</t>
         </is>
@@ -2659,14 +2829,17 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1788333079</v>
+        <v>8674423492</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="G57" t="n">
+        <v>5758514207</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>Воробьева Г.Н.</t>
         </is>
@@ -2694,14 +2867,17 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7277912400</v>
+        <v>7790783858</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="G58" t="n">
+        <v>2090062543</v>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Гавриленко С.И.</t>
         </is>
@@ -2729,14 +2905,17 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>3301589062</v>
+        <v>9558901787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>7235317728</v>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>Горева А.В.</t>
         </is>
@@ -2764,14 +2943,17 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>1584896284</v>
+        <v>7794179839</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>534793</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>534793</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Грунис Е.Б.</t>
         </is>
@@ -2799,14 +2981,17 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>2176926146</v>
+        <v>5489444116</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="n">
+        <v>8190305562</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>Грушевская О.В.</t>
         </is>
@@ -2834,14 +3019,17 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>6271274470</v>
+        <v>9227346971</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="G62" t="n">
+        <v>4669120415</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Гулиев И.С.</t>
         </is>
@@ -2869,14 +3057,17 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>2589304733</v>
+        <v>6116750163</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="n">
+        <v>1241233785</v>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Гумерова Р.Р.</t>
         </is>
@@ -2904,14 +3095,17 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4150231982</v>
+        <v>6147396526</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="n">
+        <v>4605508496</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>Гурьев Д.А.</t>
         </is>
@@ -2939,14 +3133,17 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>8953694562</v>
+        <v>1591632033</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="G65" t="n">
+        <v>7882249911</v>
+      </c>
+      <c r="I65" t="inlineStr">
         <is>
           <t>Давыденко Б.И.</t>
         </is>
@@ -2974,14 +3171,17 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6146493540</v>
+        <v>1871001917</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="G66" t="n">
+        <v>6782569157</v>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>Дайзель А.В.</t>
         </is>
@@ -3009,14 +3209,17 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>4291556671</v>
+        <v>7577219137</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="n">
+        <v>2776368888</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>Дарымов А.В.</t>
         </is>
@@ -3044,14 +3247,17 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>2113876368</v>
+        <v>4585909699</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>538149</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>538149</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>Дедученко Ф.М.</t>
         </is>
@@ -3079,14 +3285,17 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>7631831011</v>
+        <v>7554623643</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="n">
+        <v>4603619037</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>Дрошнев В.А.</t>
         </is>
@@ -3114,14 +3323,17 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>9375657023</v>
+        <v>7407198900</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="n">
+        <v>3913646788</v>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Дунаева В.И.</t>
         </is>
@@ -3149,14 +3361,17 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4089053891</v>
+        <v>7717922523</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="G71" t="n">
+        <v>6303704736</v>
+      </c>
+      <c r="I71" t="inlineStr">
         <is>
           <t>Егоров Д.С.</t>
         </is>
@@ -3184,14 +3399,17 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>4460944759</v>
+        <v>4917688401</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="n">
+        <v>5881285113</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>Елагин П.О.</t>
         </is>
@@ -3219,14 +3437,17 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1988634614</v>
+        <v>9109801435</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="n">
+        <v>6716846868</v>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Еникеев Ю.Л.</t>
         </is>
@@ -3254,14 +3475,17 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2224707195</v>
+        <v>4165552253</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="G74" t="n">
+        <v>7937636930</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Епишов А.П.</t>
         </is>
@@ -3289,15 +3513,18 @@
         </is>
       </c>
       <c r="E75" s="31" t="n">
-        <v>8250093737</v>
+        <v>9165391892</v>
       </c>
       <c r="F75" s="31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G75" s="31" t="n"/>
-      <c r="H75" s="31" t="inlineStr">
+      <c r="G75" s="31" t="n">
+        <v>4398483797</v>
+      </c>
+      <c r="H75" s="31" t="n"/>
+      <c r="I75" s="31" t="inlineStr">
         <is>
           <t>Еременко В.Б.</t>
         </is>
@@ -3325,15 +3552,18 @@
         </is>
       </c>
       <c r="E76" s="31" t="n">
-        <v>5238502146</v>
+        <v>8496779948</v>
       </c>
       <c r="F76" s="31" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G76" s="31" t="n"/>
-      <c r="H76" s="31" t="inlineStr">
+      <c r="G76" s="31" t="n">
+        <v>9718553047</v>
+      </c>
+      <c r="H76" s="31" t="n"/>
+      <c r="I76" s="31" t="inlineStr">
         <is>
           <t>Еременко В.Б.</t>
         </is>
@@ -3361,14 +3591,17 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5127210124</v>
+        <v>7846797553</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="G77" t="n">
+        <v>8048230270</v>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>Еремина И.А.</t>
         </is>
@@ -3396,14 +3629,17 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>9481985984</v>
+        <v>8748554228</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="n">
+        <v>7755617256</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Еремина П.Н.</t>
         </is>
@@ -3431,14 +3667,17 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1062413668</v>
+        <v>9267287898</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>923755</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>923755</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>Журавлева Л.М.</t>
         </is>
@@ -3466,14 +3705,17 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>7064754332</v>
+        <v>9090507380</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="G80" t="n">
+        <v>5654373400</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>Закирова М.Р.</t>
         </is>
@@ -3501,14 +3743,17 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4980104070</v>
+        <v>3816094060</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="n">
+        <v>3165043069</v>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Закирянов Р.А.</t>
         </is>
@@ -3536,15 +3781,18 @@
         </is>
       </c>
       <c r="E82" s="33" t="n">
-        <v>7237206130</v>
+        <v>7864756523</v>
       </c>
       <c r="F82" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G82" s="33" t="n"/>
-      <c r="H82" s="33" t="inlineStr">
+      <c r="G82" s="33" t="n">
+        <v>6902524096</v>
+      </c>
+      <c r="H82" s="33" t="n"/>
+      <c r="I82" s="33" t="inlineStr">
         <is>
           <t>Замрий А.В.</t>
         </is>
@@ -3572,15 +3820,18 @@
         </is>
       </c>
       <c r="E83" s="33" t="n">
-        <v>2045203934</v>
+        <v>8075911741</v>
       </c>
       <c r="F83" s="33" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G83" s="33" t="n"/>
-      <c r="H83" s="33" t="inlineStr">
+      <c r="G83" s="33" t="n">
+        <v>5984100399</v>
+      </c>
+      <c r="H83" s="33" t="n"/>
+      <c r="I83" s="33" t="inlineStr">
         <is>
           <t>Замрий А.В.</t>
         </is>
@@ -3608,14 +3859,17 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>3594837462</v>
+        <v>2055350280</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="n">
+        <v>6117077082</v>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>Зарипова Л.Ф.</t>
         </is>
@@ -3643,14 +3897,17 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5034824621</v>
+        <v>9824163810</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
+      <c r="G85" t="n">
+        <v>4902634600</v>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>Захаров А.Д.</t>
         </is>
@@ -3678,14 +3935,17 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>3579935938</v>
+        <v>8913671687</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
+      <c r="G86" t="n">
+        <v>4623053592</v>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>Зеленин П.В.</t>
         </is>
@@ -3713,14 +3973,17 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>8939715677</v>
+        <v>3409806841</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
+      <c r="G87" t="n">
+        <v>9141625181</v>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>Земцов С.А.</t>
         </is>
@@ -3748,15 +4011,18 @@
         </is>
       </c>
       <c r="E88" s="35" t="n">
-        <v>4297267898</v>
+        <v>1296079666</v>
       </c>
       <c r="F88" s="35" t="inlineStr">
         <is>
-          <t>975561</t>
-        </is>
-      </c>
-      <c r="G88" s="35" t="n"/>
-      <c r="H88" s="35" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G88" s="35" t="n">
+        <v>975561</v>
+      </c>
+      <c r="H88" s="35" t="n"/>
+      <c r="I88" s="35" t="inlineStr">
         <is>
           <t>Казанин А.Г.</t>
         </is>
@@ -3784,15 +4050,18 @@
         </is>
       </c>
       <c r="E89" s="35" t="n">
-        <v>4393273154</v>
+        <v>9201420165</v>
       </c>
       <c r="F89" s="35" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G89" s="35" t="n"/>
-      <c r="H89" s="35" t="inlineStr">
+      <c r="G89" s="35" t="n">
+        <v>9309456533</v>
+      </c>
+      <c r="H89" s="35" t="n"/>
+      <c r="I89" s="35" t="inlineStr">
         <is>
           <t>Казанин А.Г.</t>
         </is>
@@ -3820,14 +4089,17 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>2865371149</v>
+        <v>4317221637</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="n">
+        <v>6066590671</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>Казанин Г.А.</t>
         </is>
@@ -3855,14 +4127,17 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>6405831214</v>
+        <v>5085738652</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>338184</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>338184</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>Каргина Т.Н.</t>
         </is>
@@ -3890,14 +4165,17 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2450819472</v>
+        <v>6866581857</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="G92" t="n">
+        <v>2498445948</v>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>Кашапов И.Х.</t>
         </is>
@@ -3925,14 +4203,17 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>3939827545</v>
+        <v>9889712490</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
+      <c r="G93" t="n">
+        <v>6669706445</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>Киль А.О.</t>
         </is>
@@ -3960,14 +4241,17 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5596147526</v>
+        <v>7043995920</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="n">
+        <v>2253335934</v>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>Когай А.А.</t>
         </is>
@@ -3995,15 +4279,18 @@
         </is>
       </c>
       <c r="E95" s="37" t="n">
-        <v>4552378410</v>
+        <v>2423385745</v>
       </c>
       <c r="F95" s="37" t="inlineStr">
         <is>
-          <t>1090961</t>
-        </is>
-      </c>
-      <c r="G95" s="37" t="n"/>
-      <c r="H95" s="37" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G95" s="37" t="n">
+        <v>1090961</v>
+      </c>
+      <c r="H95" s="37" t="n"/>
+      <c r="I95" s="37" t="inlineStr">
         <is>
           <t>Колоколова И.В.</t>
         </is>
@@ -4031,15 +4318,18 @@
         </is>
       </c>
       <c r="E96" s="37" t="n">
-        <v>7159323276</v>
+        <v>3958320863</v>
       </c>
       <c r="F96" s="37" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G96" s="37" t="n"/>
-      <c r="H96" s="37" t="inlineStr">
+      <c r="G96" s="37" t="n">
+        <v>9500516029</v>
+      </c>
+      <c r="H96" s="37" t="n"/>
+      <c r="I96" s="37" t="inlineStr">
         <is>
           <t>Колоколова И.В.</t>
         </is>
@@ -4067,14 +4357,17 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3150454941</v>
+        <v>9532100395</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="G97" t="n">
+        <v>2714278282</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>Коренев В.В.</t>
         </is>
@@ -4102,14 +4395,17 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3567264164</v>
+        <v>5029126676</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
+      <c r="G98" t="n">
+        <v>1446134662</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>Космачева М.С.</t>
         </is>
@@ -4137,15 +4433,18 @@
         </is>
       </c>
       <c r="E99" s="39" t="n">
-        <v>7536546072</v>
+        <v>3362769901</v>
       </c>
       <c r="F99" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G99" s="39" t="n"/>
-      <c r="H99" s="39" t="inlineStr">
+      <c r="G99" s="39" t="n">
+        <v>7059354815</v>
+      </c>
+      <c r="H99" s="39" t="n"/>
+      <c r="I99" s="39" t="inlineStr">
         <is>
           <t>Кособреева А.А.</t>
         </is>
@@ -4173,15 +4472,18 @@
         </is>
       </c>
       <c r="E100" s="39" t="n">
-        <v>8077445514</v>
+        <v>9971733168</v>
       </c>
       <c r="F100" s="39" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G100" s="39" t="n"/>
-      <c r="H100" s="39" t="inlineStr">
+      <c r="G100" s="39" t="n">
+        <v>9621458428</v>
+      </c>
+      <c r="H100" s="39" t="n"/>
+      <c r="I100" s="39" t="inlineStr">
         <is>
           <t>Кособреева А.А.</t>
         </is>
@@ -4209,14 +4511,17 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5173264975</v>
+        <v>4604571118</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="G101" t="n">
+        <v>7113669319</v>
+      </c>
+      <c r="I101" t="inlineStr">
         <is>
           <t>Котлярова Н.В.</t>
         </is>
@@ -4244,15 +4549,18 @@
         </is>
       </c>
       <c r="E102" s="41" t="n">
-        <v>8952760903</v>
+        <v>4471032054</v>
       </c>
       <c r="F102" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G102" s="41" t="n"/>
-      <c r="H102" s="41" t="inlineStr">
+      <c r="G102" s="41" t="n">
+        <v>5210649840</v>
+      </c>
+      <c r="H102" s="41" t="n"/>
+      <c r="I102" s="41" t="inlineStr">
         <is>
           <t>Краус З.Т.</t>
         </is>
@@ -4280,15 +4588,18 @@
         </is>
       </c>
       <c r="E103" s="41" t="n">
-        <v>7926337277</v>
+        <v>8844227653</v>
       </c>
       <c r="F103" s="41" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G103" s="41" t="n"/>
-      <c r="H103" s="41" t="inlineStr">
+      <c r="G103" s="41" t="n">
+        <v>7366804330</v>
+      </c>
+      <c r="H103" s="41" t="n"/>
+      <c r="I103" s="41" t="inlineStr">
         <is>
           <t>Краус З.Т.</t>
         </is>
@@ -4316,14 +4627,17 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6041280494</v>
+        <v>2533151971</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
+      <c r="G104" t="n">
+        <v>6681808449</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>Куандыков Б.М.</t>
         </is>
@@ -4351,14 +4665,17 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>3579387279</v>
+        <v>3827605267</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>359018</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>103971</v>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>Кузнецов В.Г.</t>
         </is>
@@ -4386,14 +4703,17 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>3368027958</v>
+        <v>2931596784</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>106451</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>106451</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>Кузьмин В.А.</t>
         </is>
@@ -4421,14 +4741,17 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4616950087</v>
+        <v>9471142042</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
           <t>153485</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
+      <c r="G107" t="n">
+        <v>153485</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>Куклина В.В.</t>
         </is>
@@ -4456,14 +4779,17 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2590277497</v>
+        <v>2342509965</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>1134023</t>
-        </is>
-      </c>
-      <c r="H108" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1134023</v>
+      </c>
+      <c r="I108" t="inlineStr">
         <is>
           <t>Кульпин Д.Л.</t>
         </is>
@@ -4491,14 +4817,17 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>7576399926</v>
+        <v>9577991245</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="G109" t="n">
+        <v>6503302286</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>Лаптев Я.А.</t>
         </is>
@@ -4526,14 +4855,17 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>1911178880</v>
+        <v>6237663968</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>76086</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>76086</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>Маврикиди Ф.И.</t>
         </is>
@@ -4561,14 +4893,17 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>4968057215</v>
+        <v>8587198544</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
+      <c r="G111" t="n">
+        <v>1481580066</v>
+      </c>
+      <c r="I111" t="inlineStr">
         <is>
           <t>Магомедгаджиева М.А.</t>
         </is>
@@ -4596,14 +4931,17 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>3308059115</v>
+        <v>1450825771</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>46841</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>46841</v>
+      </c>
+      <c r="I112" t="inlineStr">
         <is>
           <t>Максимов А.Л.</t>
         </is>
@@ -4631,14 +4969,17 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3883214968</v>
+        <v>4908133396</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="G113" t="n">
+        <v>1259517519</v>
+      </c>
+      <c r="I113" t="inlineStr">
         <is>
           <t>Мальцев В.Ю.</t>
         </is>
@@ -4666,14 +5007,17 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>3511667139</v>
+        <v>6547905282</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="G114" t="n">
+        <v>7748984848</v>
+      </c>
+      <c r="I114" t="inlineStr">
         <is>
           <t>Махно М.А.</t>
         </is>
@@ -4701,14 +5045,17 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4733508725</v>
+        <v>6963359340</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="G115" t="n">
+        <v>9934086326</v>
+      </c>
+      <c r="I115" t="inlineStr">
         <is>
           <t>Маэнде А.</t>
         </is>
@@ -4736,14 +5083,17 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>5471176702</v>
+        <v>3312126333</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
+      <c r="G116" t="n">
+        <v>9697531076</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>Мезенцев А.С.</t>
         </is>
@@ -4771,14 +5121,17 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>7783153275</v>
+        <v>4322504070</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
+      <c r="G117" t="n">
+        <v>5257759702</v>
+      </c>
+      <c r="I117" t="inlineStr">
         <is>
           <t>Меньшикова Д.С.</t>
         </is>
@@ -4806,14 +5159,17 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>8117567027</v>
+        <v>6365795645</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
+      <c r="G118" t="n">
+        <v>7748960889</v>
+      </c>
+      <c r="I118" t="inlineStr">
         <is>
           <t>Михайлов А.Н.</t>
         </is>
@@ -4841,14 +5197,17 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4014959004</v>
+        <v>7819952558</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
+      <c r="G119" t="n">
+        <v>6745668861</v>
+      </c>
+      <c r="I119" t="inlineStr">
         <is>
           <t>Мичугин М.С.</t>
         </is>
@@ -4876,14 +5235,17 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>7354977371</v>
+        <v>8761781196</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
+      <c r="G120" t="n">
+        <v>7420702866</v>
+      </c>
+      <c r="I120" t="inlineStr">
         <is>
           <t>Насекин К.К.</t>
         </is>
@@ -4911,14 +5273,17 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1662927388</v>
+        <v>4808948265</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
+      <c r="G121" t="n">
+        <v>7047050068</v>
+      </c>
+      <c r="I121" t="inlineStr">
         <is>
           <t>Нефедов А.В.</t>
         </is>
@@ -4946,14 +5311,17 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6108979227</v>
+        <v>3775839800</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
+      <c r="G122" t="n">
+        <v>7565541659</v>
+      </c>
+      <c r="I122" t="inlineStr">
         <is>
           <t>Оганов Г.С.</t>
         </is>
@@ -4981,14 +5349,17 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6187236932</v>
+        <v>3678179161</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
+      <c r="G123" t="n">
+        <v>4101924360</v>
+      </c>
+      <c r="I123" t="inlineStr">
         <is>
           <t>Остапенко Д.А.</t>
         </is>
@@ -5016,14 +5387,17 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>7682716638</v>
+        <v>7460078284</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
+      <c r="G124" t="n">
+        <v>3637854012</v>
+      </c>
+      <c r="I124" t="inlineStr">
         <is>
           <t>Пахомов А.Л.</t>
         </is>
@@ -5051,14 +5425,17 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>4949988571</v>
+        <v>4888564229</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
+      <c r="G125" t="n">
+        <v>4253660207</v>
+      </c>
+      <c r="I125" t="inlineStr">
         <is>
           <t>Паэглит С.И.</t>
         </is>
@@ -5086,14 +5463,17 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>5629089346</v>
+        <v>2222539305</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
+      <c r="G126" t="n">
+        <v>5886067108</v>
+      </c>
+      <c r="I126" t="inlineStr">
         <is>
           <t>Погородний П.Г.</t>
         </is>
@@ -5121,14 +5501,17 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>1943344876</v>
+        <v>6548160778</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="G127" t="n">
+        <v>2235911584</v>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>Полудеткина Е.Н.</t>
         </is>
@@ -5156,15 +5539,18 @@
         </is>
       </c>
       <c r="E128" s="43" t="n">
-        <v>4384041631</v>
+        <v>8040420083</v>
       </c>
       <c r="F128" s="43" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G128" s="43" t="n"/>
-      <c r="H128" s="43" t="inlineStr">
+      <c r="G128" s="43" t="n">
+        <v>7151039529</v>
+      </c>
+      <c r="H128" s="43" t="n"/>
+      <c r="I128" s="43" t="inlineStr">
         <is>
           <t>Пунанова С.А.</t>
         </is>
@@ -5192,15 +5578,18 @@
         </is>
       </c>
       <c r="E129" s="43" t="n">
-        <v>5520461123</v>
+        <v>2591870509</v>
       </c>
       <c r="F129" s="43" t="inlineStr">
         <is>
-          <t>534346</t>
-        </is>
-      </c>
-      <c r="G129" s="43" t="n"/>
-      <c r="H129" s="43" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G129" s="43" t="n">
+        <v>534346</v>
+      </c>
+      <c r="H129" s="43" t="n"/>
+      <c r="I129" s="43" t="inlineStr">
         <is>
           <t>Пунанова С.А.</t>
         </is>
@@ -5228,14 +5617,17 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>7307427402</v>
+        <v>1182134257</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
+      <c r="G130" t="n">
+        <v>4613187135</v>
+      </c>
+      <c r="I130" t="inlineStr">
         <is>
           <t>РЕН ШАОРАН</t>
         </is>
@@ -5263,14 +5655,17 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6125174545</v>
+        <v>8153439820</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
+      <c r="G131" t="n">
+        <v>9836497578</v>
+      </c>
+      <c r="I131" t="inlineStr">
         <is>
           <t>РОДИН Я.Ю.</t>
         </is>
@@ -5298,14 +5693,17 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>5702552340</v>
+        <v>1252192915</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
+      <c r="G132" t="n">
+        <v>6851542712</v>
+      </c>
+      <c r="I132" t="inlineStr">
         <is>
           <t>Рашайски Растко</t>
         </is>
@@ -5333,14 +5731,17 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>7875487711</v>
+        <v>6753502676</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
+      <c r="G133" t="n">
+        <v>6533279438</v>
+      </c>
+      <c r="I133" t="inlineStr">
         <is>
           <t>Решетов П.С.</t>
         </is>
@@ -5368,14 +5769,17 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2783843628</v>
+        <v>2000437022</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
+      <c r="G134" t="n">
+        <v>3509938779</v>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>Роде Э.Д.</t>
         </is>
@@ -5403,14 +5807,17 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>3236121866</v>
+        <v>5837298033</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>60304</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>60304</v>
+      </c>
+      <c r="I135" t="inlineStr">
         <is>
           <t>Родкин М.В.</t>
         </is>
@@ -5438,15 +5845,18 @@
         </is>
       </c>
       <c r="E136" s="45" t="n">
-        <v>4732607252</v>
+        <v>9303944425</v>
       </c>
       <c r="F136" s="45" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G136" s="45" t="n"/>
-      <c r="H136" s="45" t="inlineStr">
+      <c r="G136" s="45" t="n">
+        <v>2272195918</v>
+      </c>
+      <c r="H136" s="45" t="n"/>
+      <c r="I136" s="45" t="inlineStr">
         <is>
           <t>Ростовщиков В.Б.</t>
         </is>
@@ -5474,15 +5884,18 @@
         </is>
       </c>
       <c r="E137" s="45" t="n">
-        <v>9877318084</v>
+        <v>6158592887</v>
       </c>
       <c r="F137" s="45" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G137" s="45" t="n"/>
-      <c r="H137" s="45" t="inlineStr">
+      <c r="G137" s="45" t="n">
+        <v>4506043118</v>
+      </c>
+      <c r="H137" s="45" t="n"/>
+      <c r="I137" s="45" t="inlineStr">
         <is>
           <t>Ростовщиков В.Б.</t>
         </is>
@@ -5510,14 +5923,17 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>4606570053</v>
+        <v>6474764655</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
+      <c r="G138" t="n">
+        <v>5166526514</v>
+      </c>
+      <c r="I138" t="inlineStr">
         <is>
           <t>Рыбаков Р.А.</t>
         </is>
@@ -5545,14 +5961,17 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>5497235237</v>
+        <v>8864342348</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
+      <c r="G139" t="n">
+        <v>9422403383</v>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>Савченко Е.Ю.</t>
         </is>
@@ -5580,14 +5999,17 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>3830519403</v>
+        <v>8026856528</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
+      <c r="G140" t="n">
+        <v>3843250924</v>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>Садреева Р.Х.</t>
         </is>
@@ -5615,14 +6037,17 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>2385631051</v>
+        <v>3850163999</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
+      <c r="G141" t="n">
+        <v>8040953991</v>
+      </c>
+      <c r="I141" t="inlineStr">
         <is>
           <t>Сафарова Е.А.</t>
         </is>
@@ -5650,14 +6075,17 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>8032641604</v>
+        <v>3696513319</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
+      <c r="G142" t="n">
+        <v>9707948403</v>
+      </c>
+      <c r="I142" t="inlineStr">
         <is>
           <t>Сейнароев М.Р.</t>
         </is>
@@ -5685,14 +6113,17 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1742856858</v>
+        <v>1399715689</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
+      <c r="G143" t="n">
+        <v>3435271043</v>
+      </c>
+      <c r="I143" t="inlineStr">
         <is>
           <t>Семенова-Чащина О.К.</t>
         </is>
@@ -5720,14 +6151,17 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>8310547830</v>
+        <v>2412949156</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
+      <c r="G144" t="n">
+        <v>5155455466</v>
+      </c>
+      <c r="I144" t="inlineStr">
         <is>
           <t>Сирота А.С.</t>
         </is>
@@ -5755,15 +6189,18 @@
         </is>
       </c>
       <c r="E145" s="47" t="n">
-        <v>4716106323</v>
+        <v>6021703620</v>
       </c>
       <c r="F145" s="47" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G145" s="47" t="n"/>
-      <c r="H145" s="47" t="inlineStr">
+      <c r="G145" s="47" t="n">
+        <v>6059526817</v>
+      </c>
+      <c r="H145" s="47" t="n"/>
+      <c r="I145" s="47" t="inlineStr">
         <is>
           <t>Скворцов А.С.</t>
         </is>
@@ -5791,15 +6228,18 @@
         </is>
       </c>
       <c r="E146" s="47" t="n">
-        <v>3495497427</v>
+        <v>6544596994</v>
       </c>
       <c r="F146" s="47" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G146" s="47" t="n"/>
-      <c r="H146" s="47" t="inlineStr">
+      <c r="G146" s="47" t="n">
+        <v>3986249645</v>
+      </c>
+      <c r="H146" s="47" t="n"/>
+      <c r="I146" s="47" t="inlineStr">
         <is>
           <t>Скворцов А.С.</t>
         </is>
@@ -5827,14 +6267,17 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>2903765611</v>
+        <v>9288252574</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
+      <c r="G147" t="n">
+        <v>7613010584</v>
+      </c>
+      <c r="I147" t="inlineStr">
         <is>
           <t>Скворцов М.Б.</t>
         </is>
@@ -5862,14 +6305,17 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2483027907</v>
+        <v>7146598346</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>143647</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>143647</v>
+      </c>
+      <c r="I148" t="inlineStr">
         <is>
           <t>Скибицкая Н.А.</t>
         </is>
@@ -5897,14 +6343,17 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5111059046</v>
+        <v>7404316716</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
+      <c r="G149" t="n">
+        <v>9822112428</v>
+      </c>
+      <c r="I149" t="inlineStr">
         <is>
           <t>Соин Д.А.</t>
         </is>
@@ -5932,14 +6381,17 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6125575451</v>
+        <v>5586974238</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>888673</t>
-        </is>
-      </c>
-      <c r="H150" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>888673</v>
+      </c>
+      <c r="I150" t="inlineStr">
         <is>
           <t>Соколова Н.В.</t>
         </is>
@@ -5967,14 +6419,17 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>4599608142</v>
+        <v>2518609221</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
+      <c r="G151" t="n">
+        <v>6045665900</v>
+      </c>
+      <c r="I151" t="inlineStr">
         <is>
           <t>Соловьев Т.И.</t>
         </is>
@@ -6002,14 +6457,17 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5079767385</v>
+        <v>3416492964</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
+      <c r="G152" t="n">
+        <v>3493192057</v>
+      </c>
+      <c r="I152" t="inlineStr">
         <is>
           <t>Соромотин А.С.</t>
         </is>
@@ -6037,14 +6495,17 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>8635933050</v>
+        <v>2181996502</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
+      <c r="G153" t="n">
+        <v>6256739096</v>
+      </c>
+      <c r="I153" t="inlineStr">
         <is>
           <t>Столяров В.Е.</t>
         </is>
@@ -6072,14 +6533,17 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>8400621037</v>
+        <v>4940496951</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
+      <c r="G154" t="n">
+        <v>3226287641</v>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>Стратов Д.В.</t>
         </is>
@@ -6107,14 +6571,17 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2641192083</v>
+        <v>4576861770</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
+      <c r="G155" t="n">
+        <v>6976308418</v>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>Сун Г.С.</t>
         </is>
@@ -6142,14 +6609,17 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5757144686</v>
+        <v>1765718958</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
+      <c r="G156" t="n">
+        <v>5239406066</v>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>Суслов А.А.</t>
         </is>
@@ -6177,14 +6647,17 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>9473241296</v>
+        <v>5483549134</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
+      <c r="G157" t="n">
+        <v>8395602450</v>
+      </c>
+      <c r="I157" t="inlineStr">
         <is>
           <t>Толмачева Е.В.</t>
         </is>
@@ -6212,15 +6685,18 @@
         </is>
       </c>
       <c r="E158" s="49" t="n">
-        <v>2447741401</v>
+        <v>3444855337</v>
       </c>
       <c r="F158" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G158" s="49" t="n"/>
-      <c r="H158" s="49" t="inlineStr">
+      <c r="G158" s="49" t="n">
+        <v>1257550284</v>
+      </c>
+      <c r="H158" s="49" t="n"/>
+      <c r="I158" s="49" t="inlineStr">
         <is>
           <t>Туманова Е.С.</t>
         </is>
@@ -6248,15 +6724,18 @@
         </is>
       </c>
       <c r="E159" s="49" t="n">
-        <v>5525381347</v>
+        <v>4051073557</v>
       </c>
       <c r="F159" s="49" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G159" s="49" t="n"/>
-      <c r="H159" s="49" t="inlineStr">
+      <c r="G159" s="49" t="n">
+        <v>6235629794</v>
+      </c>
+      <c r="H159" s="49" t="n"/>
+      <c r="I159" s="49" t="inlineStr">
         <is>
           <t>Туманова Е.С.</t>
         </is>
@@ -6284,14 +6763,17 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1616530659</v>
+        <v>2146950391</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" t="n">
+        <v>4536990957</v>
+      </c>
+      <c r="I160" t="inlineStr">
         <is>
           <t>Тюшевский М.И.</t>
         </is>
@@ -6319,14 +6801,17 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>5614980128</v>
+        <v>7007918568</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
+      <c r="G161" t="n">
+        <v>1236841583</v>
+      </c>
+      <c r="I161" t="inlineStr">
         <is>
           <t>Уварова И.В.</t>
         </is>
@@ -6354,14 +6839,17 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>1714906197</v>
+        <v>1769326635</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
+      <c r="G162" t="n">
+        <v>9021617645</v>
+      </c>
+      <c r="I162" t="inlineStr">
         <is>
           <t>Ульянов Г.В.</t>
         </is>
@@ -6389,14 +6877,17 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>6820744838</v>
+        <v>4461810101</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
+      <c r="G163" t="n">
+        <v>2652993285</v>
+      </c>
+      <c r="I163" t="inlineStr">
         <is>
           <t>Федаш А.В.</t>
         </is>
@@ -6424,14 +6915,17 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5543740153</v>
+        <v>4775204478</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
+      <c r="G164" t="n">
+        <v>9239916522</v>
+      </c>
+      <c r="I164" t="inlineStr">
         <is>
           <t>Федорова Е.В.</t>
         </is>
@@ -6459,14 +6953,17 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>7066099489</v>
+        <v>9322031059</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1084975</t>
-        </is>
-      </c>
-      <c r="H165" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1084975</v>
+      </c>
+      <c r="I165" t="inlineStr">
         <is>
           <t>Филиппова Д.С.</t>
         </is>
@@ -6494,14 +6991,17 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>7784022111</v>
+        <v>1737687556</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
+      <c r="G166" t="n">
+        <v>2363739903</v>
+      </c>
+      <c r="I166" t="inlineStr">
         <is>
           <t>Фицнер Л.К.</t>
         </is>
@@ -6529,14 +7029,17 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>5601154179</v>
+        <v>8982087457</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
+      <c r="G167" t="n">
+        <v>8411186763</v>
+      </c>
+      <c r="I167" t="inlineStr">
         <is>
           <t>Франк К.А.</t>
         </is>
@@ -6564,14 +7067,17 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>7264800564</v>
+        <v>7321697346</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
+      <c r="G168" t="n">
+        <v>4051382258</v>
+      </c>
+      <c r="I168" t="inlineStr">
         <is>
           <t>Фризен О.А.</t>
         </is>
@@ -6599,14 +7105,17 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>4918754168</v>
+        <v>6235659249</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
+      <c r="G169" t="n">
+        <v>8991154748</v>
+      </c>
+      <c r="I169" t="inlineStr">
         <is>
           <t>Ха А.Х.</t>
         </is>
@@ -6634,14 +7143,17 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5424358749</v>
+        <v>5426099481</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
+      <c r="G170" t="n">
+        <v>3988966828</v>
+      </c>
+      <c r="I170" t="inlineStr">
         <is>
           <t>Халиулин Р.Р.</t>
         </is>
@@ -6669,14 +7181,17 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>1188531799</v>
+        <v>5880989338</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
+      <c r="G171" t="n">
+        <v>6161685885</v>
+      </c>
+      <c r="I171" t="inlineStr">
         <is>
           <t>Халиуллин Т.Ф.</t>
         </is>
@@ -6704,14 +7219,17 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>2136972753</v>
+        <v>7089177333</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
+      <c r="G172" t="n">
+        <v>5468233990</v>
+      </c>
+      <c r="I172" t="inlineStr">
         <is>
           <t>Хаматов А.Р.</t>
         </is>
@@ -6739,14 +7257,17 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>9703974569</v>
+        <v>7923982479</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
+      <c r="G173" t="n">
+        <v>9045098285</v>
+      </c>
+      <c r="I173" t="inlineStr">
         <is>
           <t>ЧЕРНЫШОВ М.В.</t>
         </is>
@@ -6774,14 +7295,17 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>6281420556</v>
+        <v>9626905044</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
+      <c r="G174" t="n">
+        <v>6557652480</v>
+      </c>
+      <c r="I174" t="inlineStr">
         <is>
           <t>Чашина-Семенова О.К.</t>
         </is>
@@ -6809,14 +7333,17 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>6082035311</v>
+        <v>3153452023</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
+      <c r="G175" t="n">
+        <v>3960480782</v>
+      </c>
+      <c r="I175" t="inlineStr">
         <is>
           <t>Чащина-Семенова О.К.</t>
         </is>
@@ -6844,14 +7371,17 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>2603542090</v>
+        <v>1575017435</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
+      <c r="G176" t="n">
+        <v>3216551322</v>
+      </c>
+      <c r="I176" t="inlineStr">
         <is>
           <t>Черников А.Д.</t>
         </is>
@@ -6879,15 +7409,18 @@
         </is>
       </c>
       <c r="E177" s="51" t="n">
-        <v>3795925381</v>
+        <v>2521987008</v>
       </c>
       <c r="F177" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G177" s="51" t="n"/>
-      <c r="H177" s="51" t="inlineStr">
+      <c r="G177" s="51" t="n">
+        <v>1043265083</v>
+      </c>
+      <c r="H177" s="51" t="n"/>
+      <c r="I177" s="51" t="inlineStr">
         <is>
           <t>Черных С.П.</t>
         </is>
@@ -6915,15 +7448,18 @@
         </is>
       </c>
       <c r="E178" s="51" t="n">
-        <v>9287036171</v>
+        <v>6937868867</v>
       </c>
       <c r="F178" s="51" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G178" s="51" t="n"/>
-      <c r="H178" s="51" t="inlineStr">
+      <c r="G178" s="51" t="n">
+        <v>6969854034</v>
+      </c>
+      <c r="H178" s="51" t="n"/>
+      <c r="I178" s="51" t="inlineStr">
         <is>
           <t>Черных С.П.</t>
         </is>
@@ -6951,14 +7487,17 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7471860814</v>
+        <v>9788505680</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
+      <c r="G179" t="n">
+        <v>8517691975</v>
+      </c>
+      <c r="I179" t="inlineStr">
         <is>
           <t>Чудин Е.А.</t>
         </is>
@@ -6986,14 +7525,17 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>3080241502</v>
+        <v>4507194561</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
+      <c r="G180" t="n">
+        <v>8846251326</v>
+      </c>
+      <c r="I180" t="inlineStr">
         <is>
           <t>Шанин Е.В.</t>
         </is>
@@ -7021,14 +7563,17 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2196909881</v>
+        <v>5328062392</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
+      <c r="G181" t="n">
+        <v>8571283294</v>
+      </c>
+      <c r="I181" t="inlineStr">
         <is>
           <t>Швец А.В.</t>
         </is>
@@ -7056,14 +7601,17 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>3481750153</v>
+        <v>5255608617</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
+      <c r="G182" t="n">
+        <v>8301638235</v>
+      </c>
+      <c r="I182" t="inlineStr">
         <is>
           <t>Шевченко И.В.</t>
         </is>
@@ -7091,14 +7639,17 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>5360993342</v>
+        <v>4440720672</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
+      <c r="G183" t="n">
+        <v>2950384655</v>
+      </c>
+      <c r="I183" t="inlineStr">
         <is>
           <t>Шелепов В.В.</t>
         </is>
@@ -7126,15 +7677,18 @@
         </is>
       </c>
       <c r="E184" s="53" t="n">
-        <v>6363511511</v>
+        <v>8305896338</v>
       </c>
       <c r="F184" s="53" t="inlineStr">
         <is>
-          <t>484931</t>
-        </is>
-      </c>
-      <c r="G184" s="53" t="n"/>
-      <c r="H184" s="53" t="inlineStr">
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G184" s="53" t="n">
+        <v>484931</v>
+      </c>
+      <c r="H184" s="53" t="n"/>
+      <c r="I184" s="53" t="inlineStr">
         <is>
           <t>Шустер В.Л.</t>
         </is>
@@ -7162,15 +7716,18 @@
         </is>
       </c>
       <c r="E185" s="53" t="n">
-        <v>1688094800</v>
+        <v>8285765640</v>
       </c>
       <c r="F185" s="53" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="G185" s="53" t="n"/>
-      <c r="H185" s="53" t="inlineStr">
+      <c r="G185" s="53" t="n">
+        <v>3288565751</v>
+      </c>
+      <c r="H185" s="53" t="n"/>
+      <c r="I185" s="53" t="inlineStr">
         <is>
           <t>Шустер В.Л.</t>
         </is>
@@ -7198,14 +7755,17 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>7328759252</v>
+        <v>8308221279</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
+      <c r="G186" t="n">
+        <v>4221408829</v>
+      </c>
+      <c r="I186" t="inlineStr">
         <is>
           <t>Щеголев Д.П.</t>
         </is>
@@ -7233,14 +7793,17 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>8757616501</v>
+        <v>9978548320</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
+      <c r="G187" t="n">
+        <v>9957157828</v>
+      </c>
+      <c r="I187" t="inlineStr">
         <is>
           <t>Щукин Г.Г.</t>
         </is>
@@ -7268,14 +7831,17 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>1525721277</v>
+        <v>5316119258</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
+      <c r="G188" t="n">
+        <v>6673042426</v>
+      </c>
+      <c r="I188" t="inlineStr">
         <is>
           <t>ЮСИФОВ Р.Ю.</t>
         </is>
